--- a/7. Statistic Analysis/Results/Java/Tools/Wilcoxon - fixminer.xlsx
+++ b/7. Statistic Analysis/Results/Java/Tools/Wilcoxon - fixminer.xlsx
@@ -14,7 +14,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve"><![CDATA[Valid]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[T]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[Z]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[p-value]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex & MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands & NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength & ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize & VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume & ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel & DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel & ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement & TimeToImplement]]></t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,309 +419,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.596372" customWidth="1"/>
-    <col min="2" max="2" width="9.593605" customWidth="1"/>
+    <col min="1" max="1" width="54.552101" customWidth="1"/>
+    <col min="2" max="2" width="6.596372" customWidth="1"/>
     <col min="3" max="3" width="9.593605" customWidth="1"/>
     <col min="4" max="4" width="9.593605" customWidth="1"/>
+    <col min="5" max="5" width="9.593605" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n" s="0">
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>51</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="C2" t="n" s="0">
         <v>480.500000</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="D2" t="n" s="0">
         <v>1.710658</v>
       </c>
-      <c r="D1" t="n" s="0">
+      <c r="E2" t="n" s="0">
         <v>0.087145</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>25</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="C3" t="n" s="0">
         <v>130.000000</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D3" t="n" s="0">
         <v>0.874475</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E3" t="n" s="0">
         <v>0.381860</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>26</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="C4" t="n" s="0">
         <v>108.500000</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D4" t="n" s="0">
         <v>1.701664</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E4" t="n" s="0">
         <v>0.088819</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="C5" t="n" s="0">
         <v>496.000000</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="D5" t="n" s="0">
         <v>1.943182</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="E5" t="n" s="0">
         <v>0.051995</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="C6" t="n" s="0">
         <v>82.000000</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="D6" t="n" s="0">
         <v>0.858651</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="E6" t="n" s="0">
         <v>0.390534</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="C7" t="n" s="0">
         <v>642.000000</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="D7" t="n" s="0">
         <v>0.650678</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="E7" t="n" s="0">
         <v>0.515255</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="C8" t="n" s="0">
         <v>161.000000</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="D8" t="n" s="0">
         <v>0.956400</v>
       </c>
-      <c r="D7" t="n" s="0">
+      <c r="E8" t="n" s="0">
         <v>0.338871</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B8" t="n" s="0">
+      <c r="C9" t="n" s="0">
         <v>589.000000</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="D9" t="n" s="0">
         <v>1.119875</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="E9" t="n" s="0">
         <v>0.262768</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n" s="0">
         <v>23</v>
       </c>
-      <c r="B9" t="n" s="0">
+      <c r="C10" t="n" s="0">
         <v>121.000000</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="D10" t="n" s="0">
         <v>0.517054</v>
       </c>
-      <c r="D9" t="n" s="0">
+      <c r="E10" t="n" s="0">
         <v>0.605119</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n" s="0">
         <v>27</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="C11" t="n" s="0">
         <v>163.000000</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="D11" t="n" s="0">
         <v>0.624650</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="E11" t="n" s="0">
         <v>0.532201</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B11" t="n" s="0">
+      <c r="C12" t="n" s="0">
         <v>629.000000</v>
       </c>
-      <c r="C11" t="n" s="0">
+      <c r="D12" t="n" s="0">
         <v>0.765764</v>
       </c>
-      <c r="D11" t="n" s="0">
+      <c r="E12" t="n" s="0">
         <v>0.443817</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="n" s="0">
+      <c r="C13" t="n" s="0">
         <v>123.000000</v>
       </c>
-      <c r="C12" t="n" s="0">
+      <c r="D13" t="n" s="0">
         <v>1.333394</v>
       </c>
-      <c r="D12" t="n" s="0">
+      <c r="E13" t="n" s="0">
         <v>0.182404</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n" s="0">
         <v>30</v>
       </c>
-      <c r="B13" t="n" s="0">
+      <c r="C14" t="n" s="0">
         <v>201.000000</v>
       </c>
-      <c r="C13" t="n" s="0">
+      <c r="D14" t="n" s="0">
         <v>0.647903</v>
       </c>
-      <c r="D13" t="n" s="0">
+      <c r="E14" t="n" s="0">
         <v>0.517048</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="0">
         <v>4</v>
       </c>
-      <c r="B14" t="n" s="0">
+      <c r="C15" t="n" s="0">
         <v>2.000000</v>
       </c>
-      <c r="C14" t="n" s="0">
+      <c r="D15" t="n" s="0">
         <v>1.095445</v>
       </c>
-      <c r="D14" t="n" s="0">
+      <c r="E15" t="n" s="0">
         <v>0.273323</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n" s="0">
         <v>4</v>
       </c>
-      <c r="B15" t="n" s="0">
+      <c r="C16" t="n" s="0">
         <v>3.000000</v>
       </c>
-      <c r="C15" t="n" s="0">
+      <c r="D16" t="n" s="0">
         <v>0.730297</v>
       </c>
-      <c r="D15" t="n" s="0">
+      <c r="E16" t="n" s="0">
         <v>0.465209</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B16" t="n" s="0">
+      <c r="C17" t="n" s="0">
         <v>498.000000</v>
       </c>
-      <c r="C16" t="n" s="0">
+      <c r="D17" t="n" s="0">
         <v>1.925476</v>
       </c>
-      <c r="D16" t="n" s="0">
+      <c r="E17" t="n" s="0">
         <v>0.054171</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B17" t="n" s="0">
+      <c r="C18" t="n" s="0">
         <v>616.000000</v>
       </c>
-      <c r="C17" t="n" s="0">
+      <c r="D18" t="n" s="0">
         <v>0.880850</v>
       </c>
-      <c r="D17" t="n" s="0">
+      <c r="E18" t="n" s="0">
         <v>0.378400</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B18" t="n" s="0">
+      <c r="C19" t="n" s="0">
         <v>595.000000</v>
       </c>
-      <c r="C18" t="n" s="0">
+      <c r="D19" t="n" s="0">
         <v>1.066758</v>
       </c>
-      <c r="D18" t="n" s="0">
+      <c r="E19" t="n" s="0">
         <v>0.286082</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B19" t="n" s="0">
+      <c r="C20" t="n" s="0">
         <v>635.000000</v>
       </c>
-      <c r="C19" t="n" s="0">
+      <c r="D20" t="n" s="0">
         <v>0.712648</v>
       </c>
-      <c r="D19" t="n" s="0">
+      <c r="E20" t="n" s="0">
         <v>0.476064</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n" s="0">
         <v>5</v>
       </c>
-      <c r="B20" t="n" s="0">
+      <c r="C21" t="n" s="0">
         <v>4.000000</v>
       </c>
-      <c r="C20" t="n" s="0">
+      <c r="D21" t="n" s="0">
         <v>0.943880</v>
       </c>
-      <c r="D20" t="n" s="0">
+      <c r="E21" t="n" s="0">
         <v>0.345232</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n" s="0">
         <v>4</v>
       </c>
-      <c r="B21" t="n" s="0">
+      <c r="C22" t="n" s="0">
         <v>1.000000</v>
       </c>
-      <c r="C21" t="n" s="0">
+      <c r="D22" t="n" s="0">
         <v>1.460593</v>
       </c>
-      <c r="D21" t="n" s="0">
+      <c r="E22" t="n" s="0">
         <v>0.144128</v>
       </c>
     </row>
